--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Pass47cf7</t>
+  </si>
+  <si>
+    <t>testuser_cc34c@test.com</t>
+  </si>
+  <si>
+    <t>Pass634a2</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,6 +543,14 @@
       </c>
       <c r="B8" t="s" s="0">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
